--- a/natmiOut/OldD0/LR-pairs_lrc2p/Adam9-Itgb1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Adam9-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.3202049042199</v>
+        <v>11.915632</v>
       </c>
       <c r="H2">
-        <v>11.3202049042199</v>
+        <v>35.746896</v>
       </c>
       <c r="I2">
-        <v>0.2134251721666008</v>
+        <v>0.2203762099850903</v>
       </c>
       <c r="J2">
-        <v>0.2134251721666008</v>
+        <v>0.2203762099850904</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N2">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q2">
-        <v>1197.45999791729</v>
+        <v>1394.659940308816</v>
       </c>
       <c r="R2">
-        <v>1197.45999791729</v>
+        <v>12551.93946277934</v>
       </c>
       <c r="S2">
-        <v>0.06494046572780411</v>
+        <v>0.07152013809551983</v>
       </c>
       <c r="T2">
-        <v>0.06494046572780411</v>
+        <v>0.07152013809551984</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.3202049042199</v>
+        <v>11.915632</v>
       </c>
       <c r="H3">
-        <v>11.3202049042199</v>
+        <v>35.746896</v>
       </c>
       <c r="I3">
-        <v>0.2134251721666008</v>
+        <v>0.2203762099850903</v>
       </c>
       <c r="J3">
-        <v>0.2134251721666008</v>
+        <v>0.2203762099850904</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N3">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q3">
-        <v>1148.901925224687</v>
+        <v>1210.390343410261</v>
       </c>
       <c r="R3">
-        <v>1148.901925224687</v>
+        <v>10893.51309069235</v>
       </c>
       <c r="S3">
-        <v>0.06230707182655749</v>
+        <v>0.06207053204024574</v>
       </c>
       <c r="T3">
-        <v>0.06230707182655749</v>
+        <v>0.06207053204024573</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.3202049042199</v>
+        <v>11.915632</v>
       </c>
       <c r="H4">
-        <v>11.3202049042199</v>
+        <v>35.746896</v>
       </c>
       <c r="I4">
-        <v>0.2134251721666008</v>
+        <v>0.2203762099850903</v>
       </c>
       <c r="J4">
-        <v>0.2134251721666008</v>
+        <v>0.2203762099850904</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N4">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q4">
-        <v>1589.059594919206</v>
+        <v>1692.338955837525</v>
       </c>
       <c r="R4">
-        <v>1589.059594919206</v>
+        <v>15231.05060253773</v>
       </c>
       <c r="S4">
-        <v>0.08617763461223925</v>
+        <v>0.08678553984932477</v>
       </c>
       <c r="T4">
-        <v>0.08617763461223925</v>
+        <v>0.08678553984932477</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.7366138167649</v>
+        <v>29.800487</v>
       </c>
       <c r="H5">
-        <v>29.7366138167649</v>
+        <v>89.40146100000001</v>
       </c>
       <c r="I5">
-        <v>0.5606384316532056</v>
+        <v>0.5511514941691683</v>
       </c>
       <c r="J5">
-        <v>0.5606384316532056</v>
+        <v>0.5511514941691684</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N5">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q5">
-        <v>3145.561924044025</v>
+        <v>3487.984978102181</v>
       </c>
       <c r="R5">
-        <v>3145.561924044025</v>
+        <v>31391.86480291963</v>
       </c>
       <c r="S5">
-        <v>0.1705896286125259</v>
+        <v>0.1788688124602827</v>
       </c>
       <c r="T5">
-        <v>0.1705896286125259</v>
+        <v>0.1788688124602828</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.7366138167649</v>
+        <v>29.800487</v>
       </c>
       <c r="H6">
-        <v>29.7366138167649</v>
+        <v>89.40146100000001</v>
       </c>
       <c r="I6">
-        <v>0.5606384316532056</v>
+        <v>0.5511514941691683</v>
       </c>
       <c r="J6">
-        <v>0.5606384316532056</v>
+        <v>0.5511514941691684</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N6">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q6">
-        <v>3018.006577867557</v>
+        <v>3027.134582011515</v>
       </c>
       <c r="R6">
-        <v>3018.006577867557</v>
+        <v>27244.21123810363</v>
       </c>
       <c r="S6">
-        <v>0.1636720667723155</v>
+        <v>0.155235751082983</v>
       </c>
       <c r="T6">
-        <v>0.1636720667723155</v>
+        <v>0.155235751082983</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>29.7366138167649</v>
+        <v>29.800487</v>
       </c>
       <c r="H7">
-        <v>29.7366138167649</v>
+        <v>89.40146100000001</v>
       </c>
       <c r="I7">
-        <v>0.5606384316532056</v>
+        <v>0.5511514941691683</v>
       </c>
       <c r="J7">
-        <v>0.5606384316532056</v>
+        <v>0.5511514941691684</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N7">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q7">
-        <v>4174.239945808969</v>
+        <v>4232.467489179739</v>
       </c>
       <c r="R7">
-        <v>4174.239945808969</v>
+        <v>38092.20740261766</v>
       </c>
       <c r="S7">
-        <v>0.2263767362683642</v>
+        <v>0.2170469306259026</v>
       </c>
       <c r="T7">
-        <v>0.2263767362683642</v>
+        <v>0.2170469306259026</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.9838080677957</v>
+        <v>12.35338333333333</v>
       </c>
       <c r="H8">
-        <v>11.9838080677957</v>
+        <v>37.06015</v>
       </c>
       <c r="I8">
-        <v>0.2259363961801936</v>
+        <v>0.2284722958457413</v>
       </c>
       <c r="J8">
-        <v>0.2259363961801936</v>
+        <v>0.2284722958457413</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N8">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q8">
-        <v>1267.656451921154</v>
+        <v>1445.896353821483</v>
       </c>
       <c r="R8">
-        <v>1267.656451921154</v>
+        <v>13013.06718439335</v>
       </c>
       <c r="S8">
-        <v>0.06874734898351195</v>
+        <v>0.07414761398697887</v>
       </c>
       <c r="T8">
-        <v>0.06874734898351195</v>
+        <v>0.07414761398697889</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.9838080677957</v>
+        <v>12.35338333333333</v>
       </c>
       <c r="H9">
-        <v>11.9838080677957</v>
+        <v>37.06015</v>
       </c>
       <c r="I9">
-        <v>0.2259363961801936</v>
+        <v>0.2284722958457413</v>
       </c>
       <c r="J9">
-        <v>0.2259363961801936</v>
+        <v>0.2284722958457413</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N9">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q9">
-        <v>1216.251850307158</v>
+        <v>1254.857140192978</v>
       </c>
       <c r="R9">
-        <v>1216.251850307158</v>
+        <v>11293.7142617368</v>
       </c>
       <c r="S9">
-        <v>0.06595958256528404</v>
+        <v>0.06435085239264726</v>
       </c>
       <c r="T9">
-        <v>0.06595958256528404</v>
+        <v>0.06435085239264726</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.9838080677957</v>
+        <v>12.35338333333333</v>
       </c>
       <c r="H10">
-        <v>11.9838080677957</v>
+        <v>37.06015</v>
       </c>
       <c r="I10">
-        <v>0.2259363961801936</v>
+        <v>0.2284722958457413</v>
       </c>
       <c r="J10">
-        <v>0.2259363961801936</v>
+        <v>0.2284722958457413</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N10">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q10">
-        <v>1682.212058432103</v>
+        <v>1754.511372237245</v>
       </c>
       <c r="R10">
-        <v>1682.212058432103</v>
+        <v>15790.6023501352</v>
       </c>
       <c r="S10">
-        <v>0.09122946463139757</v>
+        <v>0.08997382946611514</v>
       </c>
       <c r="T10">
-        <v>0.09122946463139757</v>
+        <v>0.08997382946611515</v>
       </c>
     </row>
   </sheetData>
